--- a/BIT/dataset.xlsx
+++ b/BIT/dataset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bit-sys\project\2021-scope\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataset_workspace\DBench-Java\BIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HBASE001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,22 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.java:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.java:200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screenshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxx.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Projects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,11 +58,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HBASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session.java:1871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table.java:81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codefollower/H2-Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2-Research-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a03c46d9d0604bd730206415e9f4d2d110327e21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,6 +181,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5543550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9537700" y="177800"/>
+          <a:ext cx="5543550" cy="2731776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30934</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="177800"/>
+          <a:ext cx="7015934" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,69 +542,71 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="72.83203125" customWidth="1"/>
+    <col min="8" max="8" width="91.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="215" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -521,7 +616,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -531,7 +626,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -541,7 +636,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -551,7 +646,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -561,7 +656,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -571,7 +666,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -581,7 +676,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -591,7 +686,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -601,7 +696,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -611,7 +706,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -621,7 +716,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -631,7 +726,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -641,7 +736,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -651,7 +746,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -661,7 +756,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -675,5 +770,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>